--- a/player/template/2023xxxx_listplayer.xlsx
+++ b/player/template/2023xxxx_listplayer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\BadmintonPayment\player\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\badminton-payment\player\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB0BB2-5485-4ED3-A090-FC043B771DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B07CFE-A102-4EBB-88F1-99D26153921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="285" windowWidth="16815" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023xxxx_listplayer" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t>team</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>bill</t>
+  </si>
+  <si>
+    <t>Muay</t>
+  </si>
+  <si>
+    <t>Petch</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1189,7 @@
         <v>31</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C54" si="0">_xlfn.CONCAT(B2,A2)</f>
+        <f t="shared" ref="C2:C56" si="0">_xlfn.CONCAT(B2,A2)</f>
         <v>BenzIoT</v>
       </c>
       <c r="D2">
@@ -1197,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1213,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <f>SUM(D2:D300)</f>
+        <f>SUM(D2:D302)</f>
         <v>0</v>
       </c>
       <c r="M2" t="e">
@@ -1236,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E2:E33" si="1">IF(D3&gt;0, $M$2, 0)</f>
+        <f t="shared" ref="E3:E33" si="1">IF(D3&gt;0, $M$2, 0)</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -1918,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E54" si="2">IF(D34&gt;0, $M$2, 0)</f>
+        <f t="shared" ref="E34:E56" si="2">IF(D34&gt;0, $M$2, 0)</f>
         <v>0</v>
       </c>
       <c r="F34">
@@ -2147,20 +2153,20 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>UangDesign</v>
+        <v>PetchData</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E45" si="3">IF(D45&gt;0, $M$2, 0)</f>
         <v>0</v>
       </c>
       <c r="F45">
@@ -2172,11 +2178,11 @@
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>MaigolfDesign</v>
+        <v>UangDesign</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2191,14 +2197,14 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>AuiSRE</v>
+        <v>MaigolfDesign</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2213,20 +2219,20 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>FSRE</v>
+        <f t="shared" ref="C48" si="4">_xlfn.CONCAT(B48,A48)</f>
+        <v>MuayDesign</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E48" si="5">IF(D48&gt;0, $M$2, 0)</f>
         <v>0</v>
       </c>
       <c r="F48">
@@ -2235,14 +2241,14 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="0"/>
-        <v>PanPartner</v>
+        <v>AuiSRE</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2257,14 +2263,14 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>NichaBD</v>
+        <v>FSRE</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2279,14 +2285,14 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
-        <v>NineBD</v>
+        <v>PanPartner</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2304,11 +2310,11 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>NutBD</v>
+        <v>NichaBD</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2326,11 +2332,11 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v>JameBD</v>
+        <v>NineBD</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2348,11 +2354,11 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
-        <v>ChamilBD</v>
+        <v>NutBD</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2362,6 +2368,50 @@
         <v>0</v>
       </c>
       <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>JameBD</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>ChamilBD</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F56">
         <v>0</v>
       </c>
     </row>

--- a/player/template/2023xxxx_listplayer.xlsx
+++ b/player/template/2023xxxx_listplayer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\badminton-payment\player\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1dd2fc4bf918acb/Projects/badminton-payment/player/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B07CFE-A102-4EBB-88F1-99D26153921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{F8B07CFE-A102-4EBB-88F1-99D26153921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{467E8C02-7EE0-4E3D-B2C9-CEE468BBB199}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="285" windowWidth="16815" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023xxxx_listplayer" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
   <si>
     <t>team</t>
   </si>
@@ -279,6 +279,24 @@
   </si>
   <si>
     <t>Petch</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>SCM</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Nueng</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Song</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1150,7 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
@@ -1189,7 +1207,7 @@
         <v>31</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C56" si="0">_xlfn.CONCAT(B2,A2)</f>
+        <f t="shared" ref="C2:C60" si="0">_xlfn.CONCAT(B2,A2)</f>
         <v>BenzIoT</v>
       </c>
       <c r="D2">
@@ -1242,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E33" si="1">IF(D3&gt;0, $M$2, 0)</f>
+        <f t="shared" ref="E3:E60" si="1">IF(D3&gt;0, $M$2*D3, 0)</f>
         <v>0</v>
       </c>
       <c r="F3">
@@ -1474,11 +1492,11 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
-        <v>KanQA</v>
+        <v>SandQA</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1496,11 +1514,11 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
-        <v>FrameQA</v>
+        <v>KanQA</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1515,14 +1533,14 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
-        <v>AeSDE</v>
+        <v>FrameQA</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1540,11 +1558,11 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>PalmSDE</v>
+        <v>AeSDE</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1562,11 +1580,11 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>ArmSDE</v>
+        <v>PalmSDE</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1584,11 +1602,11 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>KenSDE</v>
+        <v>ArmSDE</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1606,11 +1624,11 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>MoveSDE</v>
+        <v>KenSDE</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1628,11 +1646,11 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>PermSDE</v>
+        <v>MoveSDE</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1650,11 +1668,11 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>MaxSDE</v>
+        <v>PermSDE</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1669,14 +1687,14 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>MooDev</v>
+        <v>MaxSDE</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1694,11 +1712,11 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>NopDev</v>
+        <v>MooDev</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1716,11 +1734,11 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>TuiDev</v>
+        <v>NopDev</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1738,11 +1756,11 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>WanDev</v>
+        <v>TuiDev</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1760,11 +1778,11 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>ArramDev</v>
+        <v>WanDev</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1782,11 +1800,11 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>BallDev</v>
+        <v>ArramDev</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1804,11 +1822,11 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>ChainDev</v>
+        <v>BallDev</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1826,11 +1844,11 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>NickDev</v>
+        <v>ChainDev</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1845,14 +1863,14 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>FilmSA</v>
+        <v>NickDev</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1867,14 +1885,14 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>MaxHead</v>
+        <v>FilmSA</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1892,11 +1910,11 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>PongHead</v>
+        <v>MaxHead</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1911,20 +1929,20 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>FinResource</v>
+        <v>PongHead</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E56" si="2">IF(D34&gt;0, $M$2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F34">
@@ -1936,17 +1954,17 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>MaprangResource</v>
+        <v>FinResource</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F35">
@@ -1958,17 +1976,17 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>TalayResource</v>
+        <v>MaprangResource</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F36">
@@ -1977,20 +1995,20 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C37" t="str">
-        <f>_xlfn.CONCAT(B37,A37)</f>
-        <v>NandCommu</v>
+        <f t="shared" si="0"/>
+        <v>TalayResource</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <f>IF(D37&gt;0, $M$2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F37">
@@ -1999,20 +2017,20 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>JameNLP</v>
+        <f>_xlfn.CONCAT(B38,A38)</f>
+        <v>NandCommu</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F38">
@@ -2024,17 +2042,17 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>FreshNLP</v>
+        <v>JameNLP</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F39">
@@ -2046,17 +2064,17 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>FahNLP</v>
+        <v>FreshNLP</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F40">
@@ -2068,17 +2086,17 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>AofNLP</v>
+        <v>FahNLP</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F41">
@@ -2087,20 +2105,20 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>TongCyber</v>
+        <v>AofNLP</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F42">
@@ -2109,20 +2127,20 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>JinnyBA</v>
+        <v>TongCyber</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F43">
@@ -2131,20 +2149,20 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>PhatterData</v>
+        <v>JinnyBA</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F44">
@@ -2156,17 +2174,17 @@
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>PetchData</v>
+        <v>PhatterData</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45" si="3">IF(D45&gt;0, $M$2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F45">
@@ -2175,20 +2193,20 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="0"/>
-        <v>UangDesign</v>
+        <v>PetchData</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F46">
@@ -2200,17 +2218,17 @@
         <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="0"/>
-        <v>MaigolfDesign</v>
+        <v>UangDesign</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F47">
@@ -2222,17 +2240,17 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" ref="C48" si="4">_xlfn.CONCAT(B48,A48)</f>
-        <v>MuayDesign</v>
+        <f t="shared" si="0"/>
+        <v>MaigolfDesign</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48" si="5">IF(D48&gt;0, $M$2, 0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F48">
@@ -2241,20 +2259,20 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>AuiSRE</v>
+        <f t="shared" ref="C49" si="2">_xlfn.CONCAT(B49,A49)</f>
+        <v>MuayDesign</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F49">
@@ -2266,17 +2284,17 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
-        <v>FSRE</v>
+        <v>AuiSRE</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F50">
@@ -2285,20 +2303,20 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="0"/>
-        <v>PanPartner</v>
+        <v>FSRE</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F51">
@@ -2307,20 +2325,20 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="0"/>
-        <v>NichaBD</v>
+        <v>PanPartner</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F52">
@@ -2332,17 +2350,17 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="0"/>
-        <v>NineBD</v>
+        <v>NichaBD</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F53">
@@ -2354,17 +2372,17 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="0"/>
-        <v>NutBD</v>
+        <v>NineBD</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F54">
@@ -2376,17 +2394,17 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="0"/>
-        <v>JameBD</v>
+        <v>NutBD</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F55">
@@ -2398,20 +2416,108 @@
         <v>21</v>
       </c>
       <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>JameBD</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
         <v>77</v>
       </c>
-      <c r="C56" t="str">
+      <c r="C57" t="str">
         <f t="shared" si="0"/>
         <v>ChamilBD</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F56">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>SiSCM</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>NuengSCM</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>SongExternal</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F60">
         <v>0</v>
       </c>
     </row>
